--- a/src/java/resources/excel_input_templates/Outputs_Summary_v2.xlsx
+++ b/src/java/resources/excel_input_templates/Outputs_Summary_v2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Contract Summary by Pob</t>
   </si>
@@ -104,6 +104,33 @@
   </si>
   <si>
     <t>Contract Summary</t>
+  </si>
+  <si>
+    <t>Percentage-of-Completion POb's</t>
+  </si>
+  <si>
+    <t>Point-in-Time POb's</t>
+  </si>
+  <si>
+    <t>Straight-Line POb's</t>
+  </si>
+  <si>
+    <t>Third Party Commissions</t>
+  </si>
+  <si>
+    <t>Billings To Date</t>
+  </si>
+  <si>
+    <t>Contract Summary Totals</t>
+  </si>
+  <si>
+    <t>Percentage-of-Completion POb Totals</t>
+  </si>
+  <si>
+    <t>Point-in-Time POb Totals</t>
+  </si>
+  <si>
+    <t>Straight-Line POb Totals</t>
   </si>
 </sst>
 </file>
@@ -114,7 +141,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -166,8 +193,26 @@
       <sz val="11.0"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +237,14 @@
         <bgColor rgb="FFDEEAF6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -301,11 +352,25 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -354,6 +419,24 @@
     </xf>
     <xf borderId="10" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,21 +626,165 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="25"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="25"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+    </row>
     <row r="26" ht="15.75" customHeight="1"/>
     <row r="27" ht="15.75" customHeight="1"/>
     <row r="28" ht="15.75" customHeight="1"/>
@@ -1516,6 +1743,23 @@
     <row r="981" ht="15.75" customHeight="1"/>
     <row r="982" ht="15.75" customHeight="1"/>
     <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A7:A8"/>

--- a/src/java/resources/excel_input_templates/Outputs_Summary_v2.xlsx
+++ b/src/java/resources/excel_input_templates/Outputs_Summary_v2.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contract Summary-1" sheetId="2" r:id="rId1"/>
-    <sheet name="Contract Summary-2" sheetId="3" r:id="rId2"/>
-    <sheet name="Contract Summary-3" sheetId="5" r:id="rId3"/>
-    <sheet name="Contract Summary-4" sheetId="6" r:id="rId4"/>
-    <sheet name="Contract Summary-5" sheetId="8" r:id="rId5"/>
+    <sheet name="Contract Summary-2" sheetId="5" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -86,80 +83,8 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Flowserve</author>
-  </authors>
-  <commentList>
-    <comment ref="A4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Input must reflect last day of the reporting month.
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Flowserve</author>
-  </authors>
-  <commentList>
-    <comment ref="A4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Input must reflect last day of the reporting month.
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Flowserve</author>
-  </authors>
-  <commentList>
-    <comment ref="A4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Input must reflect last day of the reporting month.
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="81">
   <si>
     <t>Reporting Month End</t>
   </si>
@@ -407,14 +332,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,7 +804,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -935,8 +860,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1064,7 +987,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Instructions and Overview --&gt;"/>
@@ -1434,14 +1357,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
@@ -1452,7 +1376,7 @@
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1463,7 +1387,7 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="2"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1472,7 +1396,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1483,20 +1407,34 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="4">
         <v>43220</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="50"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1510,8 +1448,34 @@
         <v>16</v>
       </c>
       <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1538,9 +1502,54 @@
         <f>F6+1</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="str">
+      <c r="H6" s="19">
+        <v>7</v>
+      </c>
+      <c r="I6" s="19">
+        <f>H6+1</f>
+        <v>8</v>
+      </c>
+      <c r="J6" s="19">
+        <f>I6+1</f>
+        <v>9</v>
+      </c>
+      <c r="K6" s="19">
+        <f>J6+1</f>
+        <v>10</v>
+      </c>
+      <c r="L6" s="19">
+        <v>11</v>
+      </c>
+      <c r="M6" s="19">
+        <v>12</v>
+      </c>
+      <c r="N6" s="19">
+        <f t="shared" ref="N6:S6" si="0">M6+1</f>
+        <v>13</v>
+      </c>
+      <c r="O6" s="19">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="P6" s="19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q6" s="19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R6" s="19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="S6" s="19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="44" t="str">
         <f>IF(EOMONTH(A4,0)&lt;EOMONTH('[1]Original Contract Data'!$F$4,0),"Error: Date input is prior to Original Booking Date.","")</f>
         <v/>
       </c>
@@ -1562,9 +1571,39 @@
       <c r="G7" s="20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="44"/>
       <c r="B8" s="22" t="s">
         <v>22</v>
       </c>
@@ -1583,8 +1622,44 @@
       <c r="G8" s="22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="6"/>
       <c r="B9" s="24" t="s">
         <v>27</v>
@@ -1604,85 +1679,122 @@
       <c r="G9" s="24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="S9" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15.75" thickBot="1">
       <c r="A16" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15.75" thickTop="1">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="11"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="13" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H4:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1690,381 +1802,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="27"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43220</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="19">
-        <v>7</v>
-      </c>
-      <c r="C6" s="19">
-        <f>B6+1</f>
-        <v>8</v>
-      </c>
-      <c r="D6" s="19">
-        <f>C6+1</f>
-        <v>9</v>
-      </c>
-      <c r="E6" s="19">
-        <f>D6+1</f>
-        <v>10</v>
-      </c>
-      <c r="F6" s="19">
-        <v>11</v>
-      </c>
-      <c r="G6" s="19">
-        <v>12</v>
-      </c>
-      <c r="H6" s="19">
-        <f t="shared" ref="H6:M6" si="0">G6+1</f>
-        <v>13</v>
-      </c>
-      <c r="I6" s="19">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="J6" s="19">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="K6" s="19">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="L6" s="19">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="M6" s="19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="str">
-        <f>IF(EOMONTH(A4,0)&lt;EOMONTH('[1]Original Contract Data'!$F$4,0),"Error: Date input is prior to Original Booking Date.","")</f>
-        <v/>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9" s="32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B4:M4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -2073,76 +1819,120 @@
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="2"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" thickBot="1">
       <c r="A4" s="4">
         <v>43220</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="53"/>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -2177,701 +1967,329 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="str">
+      <c r="J6" s="18">
+        <v>27</v>
+      </c>
+      <c r="K6" s="18">
+        <f>J6+1</f>
+        <v>28</v>
+      </c>
+      <c r="L6" s="18">
+        <f t="shared" ref="L6:Q6" si="1">K6+1</f>
+        <v>29</v>
+      </c>
+      <c r="M6" s="18">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="N6" s="18">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="O6" s="18">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="P6" s="18">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="Q6" s="18">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="R6" s="18">
+        <v>35</v>
+      </c>
+      <c r="S6" s="18">
+        <f>R6+1</f>
+        <v>36</v>
+      </c>
+      <c r="T6" s="18">
+        <f t="shared" ref="T6:Y6" si="2">S6+1</f>
+        <v>37</v>
+      </c>
+      <c r="U6" s="18">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="V6" s="18">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="W6" s="18">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="X6" s="18">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="Y6" s="18">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="44" t="str">
         <f>IF(EOMONTH(A4,0)&lt;EOMONTH('[1]Original Contract Data'!$F$4,0),"Error: Date input is prior to Original Booking Date.","")</f>
         <v/>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="59" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="56"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61" t="s">
+      <c r="C8" s="58"/>
+      <c r="D8" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="38" t="s">
+      <c r="E8" s="60"/>
+      <c r="F8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="39" t="s">
+      <c r="H8" s="58"/>
+      <c r="I8" s="37" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="60"/>
+      <c r="N8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="R8" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="S8" s="58"/>
+      <c r="T8" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="U8" s="60"/>
+      <c r="V8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="6"/>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="43" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="T9" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="U9" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="V9" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="W9" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="X9" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y9" s="43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="15.75" thickBot="1">
       <c r="A16" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15.75" thickTop="1">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="11"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="13" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="16">
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="G8:H8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>43220</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="18">
-        <v>27</v>
-      </c>
-      <c r="C6" s="18">
-        <f>B6+1</f>
-        <v>28</v>
-      </c>
-      <c r="D6" s="18">
-        <f t="shared" ref="D6:I6" si="0">C6+1</f>
-        <v>29</v>
-      </c>
-      <c r="E6" s="18">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F6" s="18">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="G6" s="18">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="H6" s="18">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="I6" s="18">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="str">
-        <f>IF(EOMONTH(A4,0)&lt;EOMONTH('[1]Original Contract Data'!$F$4,0),"Error: Date input is prior to Original Booking Date.","")</f>
-        <v/>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>43220</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="18">
-        <v>35</v>
-      </c>
-      <c r="C6" s="18">
-        <f>B6+1</f>
-        <v>36</v>
-      </c>
-      <c r="D6" s="18">
-        <f t="shared" ref="D6:I6" si="0">C6+1</f>
-        <v>37</v>
-      </c>
-      <c r="E6" s="18">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="F6" s="18">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="G6" s="18">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="H6" s="18">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="I6" s="18">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="str">
-        <f>IF(EOMONTH(A4,0)&lt;EOMONTH('[1]Original Contract Data'!$F$4,0),"Error: Date input is prior to Original Booking Date.","")</f>
-        <v/>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="R4:Y4"/>
+    <mergeCell ref="R7:Y7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="W8:X8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/src/java/resources/excel_input_templates/Outputs_Summary_v2.xlsx
+++ b/src/java/resources/excel_input_templates/Outputs_Summary_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12165" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="Contract Summary-1" sheetId="2" r:id="rId1"/>
@@ -1350,7 +1350,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1361,8 +1361,8 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1806,7 +1806,7 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
@@ -2274,22 +2274,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="R4:Y4"/>
+    <mergeCell ref="R7:Y7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O8:P8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="R4:Y4"/>
-    <mergeCell ref="R7:Y7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="W8:X8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/src/java/resources/excel_input_templates/Outputs_Summary_v2.xlsx
+++ b/src/java/resources/excel_input_templates/Outputs_Summary_v2.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="82">
   <si>
     <t>Reporting Month End</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>[38-39-40]</t>
+  </si>
+  <si>
+    <t>LCM Adjustments</t>
   </si>
 </sst>
 </file>
@@ -804,7 +807,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -909,6 +912,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1350,7 +1356,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1359,7 +1365,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1411,28 +1417,28 @@
       <c r="A4" s="4">
         <v>43220</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="51"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="5" t="s">
@@ -1549,7 +1555,7 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="44" t="str">
+      <c r="A7" s="45" t="str">
         <f>IF(EOMONTH(A4,0)&lt;EOMONTH('[1]Original Contract Data'!$F$4,0),"Error: Date input is prior to Original Booking Date.","")</f>
         <v/>
       </c>
@@ -1603,7 +1609,7 @@
       <c r="S7" s="27"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="22" t="s">
         <v>22</v>
       </c>
@@ -1737,56 +1743,61 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="7" t="s">
-        <v>7</v>
+      <c r="A14" s="44" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A16" s="8" t="s">
+    <row r="17" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A17" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickTop="1">
-      <c r="A17" s="9"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:1" ht="15.75" thickTop="1">
+      <c r="A18" s="9"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="10" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="11"/>
-    </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="13" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="3"/>
-    </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="13" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1797,17 +1808,18 @@
     <mergeCell ref="H4:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1860,36 +1872,36 @@
       <c r="A4" s="4">
         <v>43220</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="51" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="51" t="s">
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="54"/>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="5" t="s">
@@ -2031,94 +2043,94 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="44" t="str">
+      <c r="A7" s="45" t="str">
         <f>IF(EOMONTH(A4,0)&lt;EOMONTH('[1]Original Contract Data'!$F$4,0),"Error: Date input is prior to Original Booking Date.","")</f>
         <v/>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="54" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="54" t="s">
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="57"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="57" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59" t="s">
+      <c r="C8" s="59"/>
+      <c r="D8" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="60"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="58"/>
+      <c r="H8" s="59"/>
       <c r="I8" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="57" t="s">
+      <c r="J8" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="58"/>
-      <c r="L8" s="59" t="s">
+      <c r="K8" s="59"/>
+      <c r="L8" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="60"/>
+      <c r="M8" s="61"/>
       <c r="N8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="59" t="s">
+      <c r="O8" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="P8" s="58"/>
+      <c r="P8" s="59"/>
       <c r="Q8" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="R8" s="57" t="s">
+      <c r="R8" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="S8" s="58"/>
-      <c r="T8" s="59" t="s">
+      <c r="S8" s="59"/>
+      <c r="T8" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="U8" s="60"/>
+      <c r="U8" s="61"/>
       <c r="V8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W8" s="59" t="s">
+      <c r="W8" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="X8" s="58"/>
+      <c r="X8" s="59"/>
       <c r="Y8" s="37" t="s">
         <v>66</v>
       </c>
@@ -2220,76 +2232,81 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="7" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A16" s="8" t="s">
+    <row r="17" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A17" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickTop="1">
-      <c r="A17" s="9"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:1" ht="15.75" thickTop="1">
+      <c r="A18" s="9"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="10" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="11"/>
-    </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="13" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="3"/>
-    </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="13" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="13" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="R4:Y4"/>
-    <mergeCell ref="R7:Y7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O8:P8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="R4:Y4"/>
+    <mergeCell ref="R7:Y7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="W8:X8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/src/java/resources/excel_input_templates/Outputs_Summary_v2.xlsx
+++ b/src/java/resources/excel_input_templates/Outputs_Summary_v2.xlsx
@@ -336,11 +336,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -807,7 +808,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -835,49 +836,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -916,25 +879,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="8" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1374,110 +1384,147 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="19" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="2"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="4">
         <v>43220</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="51"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="56"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18" t="s">
+      <c r="G5" s="41"/>
+      <c r="H5" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18" t="s">
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18" t="s">
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="R5" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="42" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1485,240 +1532,240 @@
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="42">
         <v>1</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="42">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="42">
         <f>C6+1</f>
         <v>3</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="42">
         <f>D6+1</f>
         <v>4</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="42">
         <f>E6+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="42">
         <f>F6+1</f>
         <v>6</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="42">
         <v>7</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="42">
         <f>H6+1</f>
         <v>8</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="42">
         <f>I6+1</f>
         <v>9</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="42">
         <f>J6+1</f>
         <v>10</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="42">
         <v>11</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="42">
         <v>12</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="42">
         <f t="shared" ref="N6:S6" si="0">M6+1</f>
         <v>13</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="42">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="42">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="42">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="42">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="42">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="45" t="str">
+      <c r="A7" s="50" t="str">
         <f>IF(EOMONTH(A4,0)&lt;EOMONTH('[1]Original Contract Data'!$F$4,0),"Error: Date input is prior to Original Booking Date.","")</f>
         <v/>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27" t="s">
+      <c r="H7" s="44"/>
+      <c r="I7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="N7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="27" t="s">
+      <c r="O7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="27" t="s">
+      <c r="P7" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="27" t="s">
+      <c r="Q7" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="45"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="50"/>
+      <c r="B8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="29" t="s">
+      <c r="L8" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="28" t="s">
+      <c r="N8" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="28" t="s">
+      <c r="O8" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="28" t="s">
+      <c r="P8" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="Q8" s="28" t="s">
+      <c r="Q8" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="28" t="s">
+      <c r="R8" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="28" t="s">
+      <c r="S8" s="46" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="6"/>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="30" t="s">
+      <c r="M9" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="N9" s="30" t="s">
+      <c r="N9" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="30" t="s">
+      <c r="O9" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="30" t="s">
+      <c r="P9" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="Q9" s="30" t="s">
+      <c r="Q9" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="R9" s="30" t="s">
+      <c r="R9" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="S9" s="30" t="s">
+      <c r="S9" s="48" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1743,7 +1790,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="28" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1818,8 +1865,8 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1837,23 +1884,23 @@
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1">
       <c r="A3" s="3" t="s">
@@ -1861,86 +1908,86 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:25" ht="15.75" thickBot="1">
       <c r="A4" s="4">
         <v>43220</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="52" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="52" t="s">
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="54"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="59"/>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="33" t="s">
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="35" t="s">
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="33" t="s">
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="35" t="s">
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="19" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1948,265 +1995,265 @@
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="15">
         <v>19</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="15">
         <f t="shared" ref="C6:I6" si="0">B6+1</f>
         <v>20</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="15">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="15">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="15">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="15">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="15">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="15">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="14">
         <v>27</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="14">
         <f>J6+1</f>
         <v>28</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="14">
         <f t="shared" ref="L6:Q6" si="1">K6+1</f>
         <v>29</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="14">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="14">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="14">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="14">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="14">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="R6" s="18">
+      <c r="R6" s="14">
         <v>35</v>
       </c>
-      <c r="S6" s="18">
+      <c r="S6" s="14">
         <f>R6+1</f>
         <v>36</v>
       </c>
-      <c r="T6" s="18">
+      <c r="T6" s="14">
         <f t="shared" ref="T6:Y6" si="2">S6+1</f>
         <v>37</v>
       </c>
-      <c r="U6" s="18">
+      <c r="U6" s="14">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="V6" s="18">
+      <c r="V6" s="14">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="W6" s="18">
+      <c r="W6" s="14">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="X6" s="18">
+      <c r="X6" s="14">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="Y6" s="18">
+      <c r="Y6" s="14">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="45" t="str">
+      <c r="A7" s="50" t="str">
         <f>IF(EOMONTH(A4,0)&lt;EOMONTH('[1]Original Contract Data'!$F$4,0),"Error: Date input is prior to Original Booking Date.","")</f>
         <v/>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="55" t="s">
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="55" t="s">
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="57"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="62"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="58" t="s">
+      <c r="A8" s="50"/>
+      <c r="B8" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60" t="s">
+      <c r="C8" s="64"/>
+      <c r="D8" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="36" t="s">
+      <c r="E8" s="66"/>
+      <c r="F8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="59"/>
-      <c r="I8" s="37" t="s">
+      <c r="H8" s="64"/>
+      <c r="I8" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="58" t="s">
+      <c r="J8" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60" t="s">
+      <c r="K8" s="64"/>
+      <c r="L8" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="61"/>
-      <c r="N8" s="36" t="s">
+      <c r="M8" s="66"/>
+      <c r="N8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="60" t="s">
+      <c r="O8" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="37" t="s">
+      <c r="P8" s="64"/>
+      <c r="Q8" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="R8" s="58" t="s">
+      <c r="R8" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="S8" s="59"/>
-      <c r="T8" s="60" t="s">
+      <c r="S8" s="64"/>
+      <c r="T8" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="U8" s="61"/>
-      <c r="V8" s="36" t="s">
+      <c r="U8" s="66"/>
+      <c r="V8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="W8" s="60" t="s">
+      <c r="W8" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="37" t="s">
+      <c r="X8" s="64"/>
+      <c r="Y8" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="6"/>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="M9" s="41" t="s">
+      <c r="M9" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="N9" s="42" t="s">
+      <c r="N9" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="40" t="s">
+      <c r="O9" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="P9" s="41" t="s">
+      <c r="P9" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="Q9" s="43" t="s">
+      <c r="Q9" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R9" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="S9" s="39" t="s">
+      <c r="S9" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="T9" s="40" t="s">
+      <c r="T9" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="U9" s="41" t="s">
+      <c r="U9" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="V9" s="42" t="s">
+      <c r="V9" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="40" t="s">
+      <c r="W9" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="X9" s="41" t="s">
+      <c r="X9" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="Y9" s="43" t="s">
+      <c r="Y9" s="27" t="s">
         <v>73</v>
       </c>
     </row>

--- a/src/java/resources/excel_input_templates/Outputs_Summary_v2.xlsx
+++ b/src/java/resources/excel_input_templates/Outputs_Summary_v2.xlsx
@@ -9,10 +9,9 @@
   <sheets>
     <sheet name="Contract Summary-1" sheetId="2" r:id="rId1"/>
     <sheet name="Contract Summary-2" sheetId="5" r:id="rId2"/>
+    <sheet name="Reporting Unit Summary-1" sheetId="6" r:id="rId3"/>
+    <sheet name="Reporting Unit Summary-2" sheetId="7" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +27,7 @@
     <author>Flowserve</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0">
+    <comment ref="A5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +64,7 @@
     <author>Flowserve</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0">
+    <comment ref="A5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,18 +82,35 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Flowserve</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated Transaction Price reflects impact of revaluation of backlog.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="76">
   <si>
     <t>Reporting Month End</t>
   </si>
   <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Column Number</t>
-  </si>
-  <si>
     <t>Contract Summary</t>
   </si>
   <si>
@@ -125,18 +141,9 @@
     <t>Straight-Line POb Totals</t>
   </si>
   <si>
-    <t>Contract Summary by Pob</t>
-  </si>
-  <si>
     <t>Total Contract Estimates</t>
   </si>
   <si>
-    <t>[1-2-3]</t>
-  </si>
-  <si>
-    <t>[4/(1-2)]</t>
-  </si>
-  <si>
     <t>Estimated</t>
   </si>
   <si>
@@ -188,27 +195,6 @@
     <t>Contract From Inception to Date</t>
   </si>
   <si>
-    <t>[10/3]</t>
-  </si>
-  <si>
-    <t>[1*7]</t>
-  </si>
-  <si>
-    <t>[8-9-10-11]</t>
-  </si>
-  <si>
-    <t>[12/(8-9]</t>
-  </si>
-  <si>
-    <t>[3-10]</t>
-  </si>
-  <si>
-    <t>[15-8]</t>
-  </si>
-  <si>
-    <t>[8-15]</t>
-  </si>
-  <si>
     <t>Revenues</t>
   </si>
   <si>
@@ -242,12 +228,6 @@
     <t>to</t>
   </si>
   <si>
-    <t>Billings in</t>
-  </si>
-  <si>
-    <t>Costs in</t>
-  </si>
-  <si>
     <t>Complete</t>
   </si>
   <si>
@@ -260,18 +240,9 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Excess</t>
-  </si>
-  <si>
     <t>Monthly Income Statement Impact</t>
   </si>
   <si>
-    <t>[18-19-20-21]</t>
-  </si>
-  <si>
-    <t>[22-21-24]</t>
-  </si>
-  <si>
     <t>Current Reporting Month</t>
   </si>
   <si>
@@ -311,39 +282,73 @@
     <t>Quarterly Income Statement Impact</t>
   </si>
   <si>
-    <t>[26-27-28-29]</t>
-  </si>
-  <si>
-    <t>[30-31-32]</t>
-  </si>
-  <si>
     <t>Current Quarter Totals</t>
   </si>
   <si>
     <t>Annual Income Statement Impact</t>
   </si>
   <si>
-    <t>[34-35-36-37]</t>
-  </si>
-  <si>
-    <t>[38-39-40]</t>
-  </si>
-  <si>
     <t>LCM Adjustments</t>
+  </si>
+  <si>
+    <t>[Reporting Unit]</t>
+  </si>
+  <si>
+    <t>Contract Name]</t>
+  </si>
+  <si>
+    <t>Contract Performance Summary by Pob - Total</t>
+  </si>
+  <si>
+    <t>[Current Period Date]</t>
+  </si>
+  <si>
+    <t>Amounts in Local Currency</t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Liability</t>
+  </si>
+  <si>
+    <t>Contract Performance Summary by Pob - Current Year</t>
+  </si>
+  <si>
+    <t>Contract Performance Summary - Total at RU Level</t>
+  </si>
+  <si>
+    <t>Reporting Month End:</t>
+  </si>
+  <si>
+    <t>Performance Summary by Contract:</t>
+  </si>
+  <si>
+    <t>Contract Performance Summary - Current Year at RU Level</t>
+  </si>
+  <si>
+    <t>Quarter-to-Date Income Statement Impact</t>
+  </si>
+  <si>
+    <t>Year-to-Date Income Statement Impact</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,8 +457,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,6 +532,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -797,7 +816,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -807,8 +826,10 @@
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -818,9 +839,6 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -836,22 +854,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="8" fillId="10" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -903,12 +906,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -977,8 +974,242 @@
     <xf numFmtId="165" fontId="8" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="12" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="12" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="12" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="12" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="12" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="12" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="12" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="12" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="12" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
+    <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="6"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -987,6 +1218,7 @@
     <cellStyle name="Normal 2" xfId="5"/>
     <cellStyle name="Normal 41" xfId="8"/>
     <cellStyle name="Normal 45" xfId="7"/>
+    <cellStyle name="Percent" xfId="10" builtinId="5"/>
     <cellStyle name="Warning Text" xfId="3" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1000,81 +1232,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Instructions and Overview --&gt;"/>
-      <sheetName val="Workbook Instructions"/>
-      <sheetName val="Workbook Overview"/>
-      <sheetName val="Output Schedules --&gt;"/>
-      <sheetName val="Contract Summary by POb"/>
-      <sheetName val="Journal Entry"/>
-      <sheetName val="Financials &amp; Backlog"/>
-      <sheetName val="FX Drop Down List"/>
-      <sheetName val="Disclosures"/>
-      <sheetName val="Input Schedules --&gt;"/>
-      <sheetName val="Foreign Exchange Inputs"/>
-      <sheetName val="Original Contract Data"/>
-      <sheetName val="POb Created After Orig Contr"/>
-      <sheetName val="Contract TPCs"/>
-      <sheetName val="Contract Billings"/>
-      <sheetName val="POC-17469"/>
-      <sheetName val="POC-17483"/>
-      <sheetName val="POC-17488"/>
-      <sheetName val="POC Example 1"/>
-      <sheetName val="PIT Example 1"/>
-      <sheetName val="SL Example 1"/>
-      <sheetName val="Data Tab"/>
-      <sheetName val="_SSC"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="4">
-          <cell r="A4">
-            <v>43220</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="4">
-          <cell r="F4">
-            <v>42956</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21">
-        <row r="3">
-          <cell r="J3">
-            <v>42978</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="22"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1366,7 +1523,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1375,7 +1532,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1384,475 +1541,385 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="19" width="9.140625" style="29"/>
+    <col min="2" max="2" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="19" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+    </row>
+    <row r="2" spans="1:19" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="48"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="2"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="4">
-        <v>43220</v>
-      </c>
-      <c r="B4" s="51" t="s">
+      <c r="D6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54" t="s">
+      <c r="E6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="56"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="5" t="s">
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="42"/>
+      <c r="B7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="S7" s="38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="5"/>
+      <c r="B8" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="S8" s="40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" s="42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="42">
-        <v>1</v>
-      </c>
-      <c r="C6" s="42">
-        <f>B6+1</f>
-        <v>2</v>
-      </c>
-      <c r="D6" s="42">
-        <f>C6+1</f>
-        <v>3</v>
-      </c>
-      <c r="E6" s="42">
-        <f>D6+1</f>
-        <v>4</v>
-      </c>
-      <c r="F6" s="42">
-        <f>E6+1</f>
-        <v>5</v>
-      </c>
-      <c r="G6" s="42">
-        <f>F6+1</f>
-        <v>6</v>
-      </c>
-      <c r="H6" s="42">
-        <v>7</v>
-      </c>
-      <c r="I6" s="42">
-        <f>H6+1</f>
-        <v>8</v>
-      </c>
-      <c r="J6" s="42">
-        <f>I6+1</f>
-        <v>9</v>
-      </c>
-      <c r="K6" s="42">
-        <f>J6+1</f>
-        <v>10</v>
-      </c>
-      <c r="L6" s="42">
-        <v>11</v>
-      </c>
-      <c r="M6" s="42">
-        <v>12</v>
-      </c>
-      <c r="N6" s="42">
-        <f t="shared" ref="N6:S6" si="0">M6+1</f>
-        <v>13</v>
-      </c>
-      <c r="O6" s="42">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="P6" s="42">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="Q6" s="42">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="R6" s="42">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="S6" s="42">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="50" t="str">
-        <f>IF(EOMONTH(A4,0)&lt;EOMONTH('[1]Original Contract Data'!$F$4,0),"Error: Date input is prior to Original Booking Date.","")</f>
-        <v/>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="50"/>
-      <c r="B8" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="R8" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="S8" s="46" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="6"/>
-      <c r="B9" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q9" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="R9" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="S9" s="48" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="7" t="s">
+    <row r="12" spans="1:19">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="7" t="s">
+    <row r="13" spans="1:19">
+      <c r="A13" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="7" t="s">
+    <row r="15" spans="1:19">
+      <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="7" t="s">
+    <row r="16" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="7" t="s">
+    <row r="17" spans="1:1" customFormat="1" ht="15.75" thickTop="1">
+      <c r="A17" s="8"/>
+    </row>
+    <row r="18" spans="1:1" customFormat="1">
+      <c r="A18" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" customFormat="1">
+      <c r="A19" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A17" s="8" t="s">
+    <row r="20" spans="1:1" customFormat="1">
+      <c r="A20" s="10"/>
+    </row>
+    <row r="21" spans="1:1" customFormat="1">
+      <c r="A21" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" customFormat="1">
+      <c r="A22" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" thickTop="1">
-      <c r="A18" s="9"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="6" t="s">
+    <row r="23" spans="1:1" customFormat="1">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:1" customFormat="1">
+      <c r="A24" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="10" t="s">
+    <row r="25" spans="1:1" customFormat="1">
+      <c r="A25" s="12" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="11"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="13" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="H4:S4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="H5:S5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1863,7 +1930,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1880,482 +1947,1452 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+        <v>69</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A3" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A4" s="4">
-        <v>43220</v>
-      </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="59"/>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="5" t="s">
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="51"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="54"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="58"/>
+      <c r="F7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="56"/>
+      <c r="I7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="56"/>
+      <c r="L7" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="58"/>
+      <c r="N7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="U7" s="58"/>
+      <c r="V7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="W7" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="V8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="X8" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y8" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="15">
-        <v>19</v>
-      </c>
-      <c r="C6" s="15">
-        <f t="shared" ref="C6:I6" si="0">B6+1</f>
-        <v>20</v>
-      </c>
-      <c r="D6" s="15">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E6" s="15">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="F6" s="15">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="G6" s="15">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H6" s="15">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="I6" s="15">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="J6" s="14">
-        <v>27</v>
-      </c>
-      <c r="K6" s="14">
-        <f>J6+1</f>
-        <v>28</v>
-      </c>
-      <c r="L6" s="14">
-        <f t="shared" ref="L6:Q6" si="1">K6+1</f>
-        <v>29</v>
-      </c>
-      <c r="M6" s="14">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="N6" s="14">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="O6" s="14">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="P6" s="14">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="Q6" s="14">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="R6" s="14">
-        <v>35</v>
-      </c>
-      <c r="S6" s="14">
-        <f>R6+1</f>
-        <v>36</v>
-      </c>
-      <c r="T6" s="14">
-        <f t="shared" ref="T6:Y6" si="2">S6+1</f>
-        <v>37</v>
-      </c>
-      <c r="U6" s="14">
-        <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="V6" s="14">
-        <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="W6" s="14">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="X6" s="14">
-        <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="Y6" s="14">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="50" t="str">
-        <f>IF(EOMONTH(A4,0)&lt;EOMONTH('[1]Original Contract Data'!$F$4,0),"Error: Date input is prior to Original Booking Date.","")</f>
-        <v/>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="62"/>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="64"/>
-      <c r="I8" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="64"/>
-      <c r="L8" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" s="66"/>
-      <c r="N8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="R8" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="S8" s="64"/>
-      <c r="T8" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="U8" s="66"/>
-      <c r="V8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="W8" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="O9" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="P9" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q9" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="R9" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="S9" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="T9" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="U9" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="V9" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="W9" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="X9" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y9" s="27" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
-      <c r="A11" s="7" t="s">
+    <row r="12" spans="1:25">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
-      <c r="A12" s="7" t="s">
+    <row r="13" spans="1:25">
+      <c r="A13" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="7" t="s">
+    <row r="15" spans="1:25">
+      <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
-      <c r="A14" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="A15" s="7" t="s">
+    <row r="16" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
-      <c r="A16" s="7" t="s">
+    <row r="17" spans="1:1" ht="15.75" thickTop="1">
+      <c r="A17" s="8"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A17" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" thickTop="1">
-      <c r="A18" s="9"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A20" s="10"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="11"/>
+      <c r="A21" s="11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="13" t="s">
-        <v>11</v>
-      </c>
+      <c r="A23" s="3"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="3"/>
+      <c r="A24" s="11" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="R4:Y4"/>
-    <mergeCell ref="R7:Y7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="R5:Y5"/>
+    <mergeCell ref="R6:Y6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="J5:Q5"/>
+    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="41.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="69"/>
+    </row>
+    <row r="5" spans="1:25" ht="45">
+      <c r="A5" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="73"/>
+      <c r="I5" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="70"/>
+      <c r="B6" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="S6" s="77" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" s="81" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="83"/>
+      <c r="H8" s="84"/>
+      <c r="N8" s="83"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="85"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="85"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" thickTop="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="F17" s="83"/>
+      <c r="H17" s="84"/>
+      <c r="N17" s="83"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="83"/>
+      <c r="H18" s="84"/>
+      <c r="N18" s="83"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="F19" s="83"/>
+      <c r="H19" s="84"/>
+      <c r="N19" s="83"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="F20" s="83"/>
+      <c r="H20" s="84"/>
+      <c r="N20" s="83"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="F21" s="83"/>
+      <c r="H21" s="84"/>
+      <c r="N21" s="83"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="F22" s="83"/>
+      <c r="H22" s="84"/>
+      <c r="N22" s="83"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="F23" s="83"/>
+      <c r="H23" s="84"/>
+      <c r="N23" s="83"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="F24" s="83"/>
+      <c r="H24" s="84"/>
+      <c r="N24" s="83"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="F25" s="83"/>
+      <c r="H25" s="84"/>
+      <c r="N25" s="83"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="F26" s="83"/>
+      <c r="H26" s="84"/>
+      <c r="N26" s="83"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="F27" s="83"/>
+      <c r="H27" s="84"/>
+      <c r="N27" s="83"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="F28" s="83"/>
+      <c r="H28" s="84"/>
+      <c r="N28" s="83"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="F29" s="83"/>
+      <c r="H29" s="84"/>
+      <c r="N29" s="83"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="F30" s="83"/>
+      <c r="H30" s="84"/>
+      <c r="N30" s="83"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="F31" s="83"/>
+      <c r="H31" s="84"/>
+      <c r="N31" s="83"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="F32" s="83"/>
+      <c r="H32" s="84"/>
+      <c r="N32" s="83"/>
+    </row>
+    <row r="33" spans="6:14">
+      <c r="F33" s="83"/>
+      <c r="H33" s="84"/>
+      <c r="N33" s="83"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H4:S4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="24" max="24" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="94"/>
+    </row>
+    <row r="5" spans="1:25" s="59" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="104"/>
+    </row>
+    <row r="6" spans="1:25" s="59" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="95"/>
+      <c r="B6" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="106"/>
+      <c r="D6" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="108"/>
+      <c r="F6" s="109" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="106"/>
+      <c r="I6" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="111" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="112"/>
+      <c r="L6" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="114"/>
+      <c r="N6" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="113" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="116" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="117" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="118"/>
+      <c r="T6" s="119" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6" s="120"/>
+      <c r="V6" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="W6" s="119" t="s">
+        <v>48</v>
+      </c>
+      <c r="X6" s="118"/>
+      <c r="Y6" s="122" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="141" customFormat="1" ht="30">
+      <c r="A7" s="123"/>
+      <c r="B7" s="124" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="127" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="126" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="127" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="128" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="129" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="130" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="133" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="131" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="132" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" s="134" t="s">
+        <v>56</v>
+      </c>
+      <c r="R7" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="136" t="s">
+        <v>51</v>
+      </c>
+      <c r="T7" s="137" t="s">
+        <v>52</v>
+      </c>
+      <c r="U7" s="138" t="s">
+        <v>53</v>
+      </c>
+      <c r="V7" s="139" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" s="137" t="s">
+        <v>54</v>
+      </c>
+      <c r="X7" s="138" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y7" s="140" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="85"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="85"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="85"/>
+      <c r="Y11" s="85"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="85"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="85"/>
+      <c r="Y12" s="85"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="85"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="85"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="85"/>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="85"/>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" thickTop="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="85"/>
+      <c r="W16" s="85"/>
+      <c r="X16" s="85"/>
+      <c r="Y16" s="85"/>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
+      <c r="W17" s="85"/>
+      <c r="X17" s="85"/>
+      <c r="Y17" s="85"/>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="R4:Y4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="J5:Q5"/>
+    <mergeCell ref="R5:Y5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>